--- a/PsyCap Review_Full Data.xlsx
+++ b/PsyCap Review_Full Data.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{89523EBC-D80E-024A-9CFC-E7496FF8F42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5E3BD19-0338-4546-A10F-24FAA7212752}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PsyCap Review Tool_Data" sheetId="1" r:id="rId1"/>
@@ -2496,16 +2496,16 @@
   <dimension ref="A1:Y66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="39" customWidth="1"/>
     <col min="3" max="3" width="11" style="5" customWidth="1"/>
-    <col min="6" max="6" width="23.125" customWidth="1"/>
-    <col min="14" max="14" width="16.375" customWidth="1"/>
-    <col min="25" max="25" width="10.875" style="5"/>
+    <col min="6" max="6" width="23.09765625" customWidth="1"/>
+    <col min="14" max="14" width="16.3984375" customWidth="1"/>
+    <col min="25" max="25" width="10.8984375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="2" customFormat="1">
